--- a/app/import/song_data.xlsx
+++ b/app/import/song_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="31000" yWindow="-8840" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>player_id</t>
   </si>
@@ -65,6 +65,30 @@
   </si>
   <si>
     <t>type_id</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>무슨 말을 더 해</t>
+  </si>
+  <si>
+    <t>모호</t>
+  </si>
+  <si>
+    <t>편한 사이</t>
+  </si>
+  <si>
+    <t>화이트셔츠</t>
+  </si>
+  <si>
+    <t>반하다</t>
+  </si>
+  <si>
+    <t>Moondance</t>
+  </si>
+  <si>
+    <t>오늘까지 바래다줄게</t>
   </si>
   <si>
     <t>solatic</t>
@@ -83,300 +107,74 @@
     <t>female</t>
   </si>
   <si>
-    <t>반하다</t>
+    <t>우예</t>
+  </si>
+  <si>
+    <t>그대는 나를</t>
+  </si>
+  <si>
+    <t>아직 안자</t>
+  </si>
+  <si>
+    <t>MOHO</t>
+  </si>
+  <si>
+    <t>http://image.bugsm.co.kr/album/images/original/5153/515310.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아침 햇살에 눈을 떠보니 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">느슨한 티셔츠 같던 우리 사이 </t>
+  </si>
+  <si>
+    <t>눈빛만으로도 서로 알 것 같았기에</t>
+  </si>
+  <si>
+    <t>아직 안자 문자했었네</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>화이트셔츠</t>
+    <t>무슨 생각 하는지 내 기분이 어떤지</t>
+  </si>
+  <si>
+    <t>그래 이번엔 또 뭐야</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>모호</t>
+    <t>미안해미안한데</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>아직 안자</t>
+    <t>solatic</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>우예</t>
+    <t>당신은 로맨틱, 판타스틱, 쏠라틱한 사람입니다. 당신이 가진 잠재력을 펼쳐보세요</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>콘치즈</t>
+    <t>슈퍼밀당</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>에그타르트</t>
+    <t>당신은 슈퍼밀당하시는 분입니다. 자존심때문에 말을 제대로 하지도 못하는 당신, 그러나 사랑이 당신에겐 최고지요</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>조개롱</t>
+    <t>립다립다그립다</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>미안해 미안한데</t>
+    <t>마음 속 한구석에 그리움을 가지고 살아가는 사람입니다</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>중립형</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>인절미 와고롱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>허니티라미슈 브래드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>마다가스카르 바닐라빈 와고롱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOHO</t>
-  </si>
-  <si>
-    <t>http://image.bugsm.co.kr/album/images/original/5153/515310.jpg</t>
-  </si>
-  <si>
-    <t>혹시 오해 말아요. 그대 때문 아니죠. 그댄 내게 그저 에그타르트일 뿐인데 요즘 왠지 내 일상이 특별하게 변해버렸죠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">느슨한 티셔츠 같던 우리 사이. 우리에게 필요한 건 바로 와고 조개롱. 네 생각에 정신이 아득해 어느새 내 안에 네가 가득해. </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>우-예! 한 입 배어먹은 순간 무슨 생각 하는지 내 기분이 어떤지 굳이 말하지 않아도 알죠? 볶음콩가루의 고소한 풍미 가득 크. 맛있다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>틱탁 집 앞이야 잠깐 나와 와고 허니티라미슈브래드 먹을까. 이렇게 된 이상 후회하면 어때. 살쪄도 후회라면 이렇게라도 한번.</t>
-  </si>
-  <si>
-    <t>선택은 한번도 내 몫인 적이 없는데, 채 꺼내어먹지도 않았던 마다가스카르 바닐라빈 와고롱에. 넌 지키고 싶은게 너무나 많았기에 와고롱을 양보할 생각이 없었나봐.</t>
-  </si>
-  <si>
-    <t>알겠어 내가 미안한데 너만 참은게 아냐. 이번 콘치즈만은 절대 포기 못해. 달콤한 콘치즈를 듬뿍 넣은 와고 콘치즈 와고롱은 맨날 sold out 이란 말이야</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 생각 하는지 내 기분이 어떤지
-굳이 말하지 않아도 아는 사람
-무슨 일이 있는지 너의 마음 어떤지
-얘기하지 않아도 다 알 수 있어
-사람들 농담처럼 둘이 잘 어울려
-말도 안된다며 웃었던 
-그 때의 우리가 더 우스워
-다른 연인들처럼 너무 당연한데
-모두가 아는데 우리 둘만 왜
-우예 우예 아직도 아닌 척 외면하기엔
-우예 우예 난 니가 필요해 필요해
-우예 우예 니 맘을 모르는 척 외면하기엔
-우예 우예 넌 내가 필요해 필요해
-Ooh Sometimes 별 일 없이 연락할 때
-누군가 필요할 때 얘기하고 싶을 때
-나 지칠 땐 가끔 기대고
-넌 스스럼 없이 어깰 주고
-또 가끔 다투기도 하고
-언제 그랬냔 듯 웃어주고
-우예 우예 아직도 아닌 척 외면하기엔
-우예 우예 난 니가 필요해 필요해
-우예 우예 니 맘을 모르는 척 외면하기엔
-우예 우예 넌 내가 필요해 필요해
-huh huh huh huh tell me you’ll be mine
-huh huh huh huh I promise we’ll be fine
-huh huh huh huh come and cross the line
-huh huh huh huh huh OOH YEAH
-우예 우예 곁에 있을 때마다 매일 매일 더
-우예 우예 난 니가 필요해 필요해
-우예 우예 니 맘을 이제는 내게 말해줘
-I’ll be your girl I’ll be your friend 
-I’ll be your world
-난 매일 니가 필요해</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 이번엔 또 뭐야
-이번엔 또 내가 무슨 잘못한거야
-애매한 네 표정 굳은 그 말투
-하루종일 나만 눈치보고 있잖아
-그래 이번에도 나야
-이번에도 내가 무슨 실수한 거야
-어색한 네 표정 굳은 그 시선
-조심스레 잡은 내가 민망하잖아
-어디 갈까 뭐 먹을까
-달래 봐도 너는 마냥 그러거나 말거나
-눈치 보는 것도 솔직히 지쳤어
-왜 넌 매번 나만 또 신경 쓰게 만드는데
-알겠어 내가 미안한데
-모르겠어 내가 뭘 (그렇게 잘못한 건지)
-알겠어 내가 미안해 미안한데
-너만 참은게 아냐 
-나도 할 말은 있어 너무 그러지마
-좀 어색하지 너를 만나서 걷는 이 길
-평소엔 보이지 않던 아스팔트의 재질
-왜 왜 왜 그러냐는 질문에 
-유난히 더 날씨는 맑어
-잘 안받쳐주네 우리 사인
-엉켜 있어 주머니의 이어폰처럼 
-미리 풀어놔도 또 꼬이지 매듭도 없는데 
-괜히 화 풀기 싫지 
-니가 옆에서 칭얼거리는 게 나쁘진 않지 
-어디 갈까 (아무데나) 
-뭐 먹을까 (아무거나)
-달래봐도 너는 마냥 그러거나 말거나
-눈치 보는 것도 솔직히 지쳤어
-왜 넌 매번 나만 또 신경 쓰게 만드는데
-알겠어 내가 미안한데
-모르겠어 내가 뭘 (그렇게 잘못한 건지)
-알겠어 내가 미안해 미안한데
-너만 참은게 아냐 
-나도 할 말은 있어 너무 그러지마
-알겠어 내가 미안한데
-모르겠어 사실 다 
-(좋아해서 그런 건데)
-알겠어 내가 미안해 미안한데
-너만 참은게 아냐
-나도 할 말은 있어 너무 그러지마
-알겠어 내가 미안한데
-모르겠어 내가 뭘 (그렇게 잘못한 건지)
-알겠어 내가 미안해 미안한데
-너만 참은게 아냐 
-나도 할 말은 있어 너무 그러지마</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 안자 문자 했었네
-조금 전에 들어왔거든
-이제 누웠어 답장하면서도
-괜히 나는 또 거울 앞에
-Tick tock 시간은 자꾸 가는데
-Make up 오늘따라 자연스러운데
-Tick tock 말해볼까 조금 더 애태울까
-조금만 더 기다려 볼까
-내가 먼저 티를 내볼까
-이제는 알 때도 됐는데
-눈치 없는지 맘이 없는 건지
-날 헷갈리게 하려는 건지
-Tick tock 시간은 자꾸 가는데
-Make up 오늘따라 자연스러운데
-Tick tock 말해볼까 조금 더 애태울까
-조금만 더 기다려 볼까
-나도 모르는게 아냐 눈치 없는게 아냐
-우리 정말 시작인 것만 같아서
-조금 더 신중하게 너를 불러내려 해
-어색한 티는 내고 싶지 않아 난
-Tick tock 집 앞이야 잠깐 나와 좀 걸을까
-이렇게 된 이상 후회하면 어때
-안해도 후회라면 이렇게라도 한 번
-Tick tock 시간은 자꾸 가는데
-Make up 오늘따라 자연스러운데
-Tick tock 말해볼까 조금 더 애태울까
-조금만 더 기다려 볼까
-Tick tock Tick tock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈빛만으로도 서로 알 것 같았기에
-채 꺼내어 놓지도 않았던 마음들에
-넌 지키고 싶은 게 너무나 많았기에
-아무것도 내려놓을 용기가 없었나봐
-선택은 한번도 내 몫인 적이 없는데
-채 꺼내어 놓지도 않는 너의 말들에
-나 지키고 싶은 게 너무나 많았는데
-아무래도 내려놓을 수 밖에 없는가봐
-나만 아프지 기댈 곳이 필요했던 내게
-그 따뜻한 네 품을 잠시 내어준 건
-참 나쁘지 나쁘지 않으려는 맘이 
-때론 더 나빠
-너도 너를 모른다 하지마
-나를 걱정했다 말하지마
-아무렇지 않으려 애써도
-이젠 내가 나를 모르겠어
-나만 아프지 기댈 곳이 필요했던 내게
-그 따뜻한 네 품을 잠시 내어준 건
-참 나쁘지 나쁘지 않으려는 맘이
-때론 더 
-소중해서 미워하지 못하더라도
-이것만은 꼭 네게 전해주고 싶어
-참 나쁘지 상처주지 않으려는 맘이
-더 아파</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>느슨한 티셔츠 같던 우리 사이 
-어제까진 우린 그저 그런 사이 
-오늘 밤 너의 화이트셔츠 같이 타이트 
-하게 달라진 나의 너를 보는 내 맘 
-어제와는 달라 
-움직임 하나에 설레 
-날 보는 네 눈빛에 oh yeah 
-살짝 걷어올린 소매 
-왠지 리듬같은 너의 입맞춤 
-화이트셔츠 어깨라인 미소 fine 
-옷깃 사이로 내 맘이 스칠 때 
-화이트셔츠 어깨라인 you’re so fine 
-오늘 밤엔 green light 
-네 생각에 정신이 아득해 
-어느새 내 안에 네가 가득해 
-너도 이런 나의 맘을 아는 듯해 
-왠지 리듬같은 너의 입맞춤 
-화이트셔츠 어깨라인 미소 fine 
-옷깃 사이로 내 맘이 스칠 때 
-화이트셔츠 어깨라인 you’re so fine 
-오늘 밤엔 green light 
-나의 맘을 녹여준 너의 화이트셔츠 
-오늘따라 눈이 부셔 
-어깨라인 하얀 미소fine 
-니가 달라 보인 날 
-나의 맘을 녹여준 Mmm 
-(화이트셔츠 어깨라인 미소 fine) 
-반해버렸나봐 나의 맘이 너에게 Mmm
-(화이트셔츠 어깨라인 미소 fine)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>아침 햇살에 눈을 떠보니 
-포근함이 나를 감싸요 
-오늘 왠지 기분이 좋죠
-매일 마시는 물컵에다가 
-물을 가득 따라 마시고 
-숨을 한 번 크게 내쉬죠
-똑같은 일상 속 일들뿐이죠
-크게 변한 건 없는데
-매일 번져오는 내 입가의 미소 
-숨길 수는 없는 것 같아요
-혹시 오해 말아요 그대 때문 아니죠
-그댄 내게 그저 일상일 뿐인데
-요즘 왠지 내 일상이 
-특별하게 변해버렸죠
-십분 일찍 일어날까요 
-동네 한 번 돌다 갈까요 
-출근길도 산책길 같죠
-한참 기다려 오는 버스는 
-오늘 역시 만원인데 
-나는 한껏 여유로워요
-똑같은 일상 속 일들뿐이죠
-크게 변한 건 없는데
-매일 번져오는 내 입가의 미소 
-숨길 수는 없는 것 같아요
-혹시 오해 말아요 그대 때문 아니죠
-그댄 내게 그저 일상일 뿐인데
-요즘 왠지 내 일상이 
-특별하게 변해버렸죠
-Someone special
-Ooh someone to love
-Some some some 
-그대 맘 어떤가요 나와 같은 건가요
-Some some some 
-Someone special
-Ooh someone to love
-Some some some 
-Someone special
-Ooh someone to love</t>
+    <t>보편적 음악취향. 당신과 쏠라티의 연결고리는 언제나 교집합</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +215,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="굴림"/>
-      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
@@ -431,55 +228,57 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF3A3635"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Yoon 윤고딕 530_TT"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF757271"/>
+      <name val="Cambria"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Yoon 윤고딕 530_TT"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF343434"/>
-      <name val="Yoon 윤고딕 530_TT"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Yoon 윤고딕 530_TT"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="19"/>
-      <color rgb="FF000000"/>
-      <name val="Yoon 윤고딕 530_TT"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF343434"/>
-      <name val="Apple SD 산돌고딕 Neo 일반체"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF757271"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
       <charset val="129"/>
     </font>
@@ -501,17 +300,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -520,58 +317,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -932,14 +717,9 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -956,213 +736,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="17"/>
-    <col min="4" max="4" width="27.1640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="17"/>
+    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="11"/>
+    <col min="4" max="4" width="27.1640625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="21">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="21">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="21">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="21">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="21">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="17">
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="18">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="F11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="22">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="20">
-        <v>3</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="18">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="20">
-        <v>5</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="18">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="20">
-        <v>6</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C8" s="18"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C9" s="18"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C10" s="18"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C11" s="22"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1181,7 +1038,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1208,24 +1065,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1244,153 +1101,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="11"/>
-    <col min="3" max="3" width="24.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="11"/>
+    <col min="1" max="16384" width="14.5" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="43" customHeight="1">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1">
-      <c r="A3" s="11">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43" customHeight="1">
-      <c r="A4" s="11">
+      <c r="B3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43" customHeight="1">
-      <c r="A5" s="11">
+      <c r="B4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43" customHeight="1">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43" customHeight="1">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="B5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D12" s="13"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D19" s="16"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/import/song_data.xlsx
+++ b/app/import/song_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31000" yWindow="-8840" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="45420" yWindow="-10000" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>player_id</t>
   </si>
@@ -176,6 +176,12 @@
   <si>
     <t>보편적 음악취향. 당신과 쏠라티의 연결고리는 언제나 교집합</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>편한사이</t>
+  </si>
+  <si>
+    <t>moondance</t>
   </si>
 </sst>
 </file>
@@ -300,11 +306,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -353,10 +362,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -798,7 +810,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="21">
@@ -912,7 +924,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>32</v>
@@ -956,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>31</v>
@@ -998,7 +1010,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="22">
         <v>1</v>
@@ -1012,7 +1024,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>35</v>
@@ -1035,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1078,11 +1090,35 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1091,6 +1127,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1103,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/app/import/song_data.xlsx
+++ b/app/import/song_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="45420" yWindow="-10000" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="45420" yWindow="-10000" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -191,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -246,38 +246,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF757271"/>
-      <name val="Cambria"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF343434"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
       <charset val="129"/>
@@ -285,6 +253,24 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF757271"/>
+      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343434"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
       <charset val="129"/>
     </font>
@@ -306,7 +292,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -316,8 +302,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -337,38 +325,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,286 +737,286 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="11"/>
-    <col min="4" max="4" width="27.1640625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="11"/>
+    <col min="1" max="1" width="14.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="14"/>
+    <col min="4" max="4" width="27.1640625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="15"/>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="21">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18">
         <v>2</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>3</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="21">
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18">
         <v>3</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="21">
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18">
         <v>3</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>3</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>3</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>2</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="16">
         <v>5</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="22">
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="25">
         <v>2</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="F11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="16">
         <v>2</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="25">
         <v>2</v>
       </c>
     </row>
@@ -1050,7 +1037,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="A3" sqref="A3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1140,114 +1127,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="14.5" style="25"/>
+    <col min="1" max="16384" width="14.5" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="24">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C13" s="26"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/app/import/song_data.xlsx
+++ b/app/import/song_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="45420" yWindow="-10000" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="29000" yWindow="-7840" windowWidth="25600" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>album_id</t>
   </si>
   <si>
-    <t>lyric</t>
-  </si>
-  <si>
     <t>photo</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Moondance</t>
-  </si>
-  <si>
-    <t>오늘까지 바래다줄게</t>
   </si>
   <si>
     <t>solatic</t>
@@ -122,66 +116,68 @@
     <t>http://image.bugsm.co.kr/album/images/original/5153/515310.jpg</t>
   </si>
   <si>
+    <t>Fantastic형</t>
+  </si>
+  <si>
+    <t>Romantic형</t>
+  </si>
+  <si>
+    <t>Solatic 형</t>
+  </si>
+  <si>
+    <t>교집합 형</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;소통&lt;/b&gt;하기를 좋아하고&lt;br&gt;&lt;b&gt;공감능력&lt;/b&gt;이 뛰어나며&lt;br&gt;&lt;br&gt;온순한 성격 뒤에&lt;br&gt;&lt;b&gt;조금은 미련한 구석이 있는&lt;/b&gt;&lt;br&gt;&lt;br&gt;베이스 오안과 같은 &lt;b&gt;Solatic 형&lt;/b&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙천적인 성격에&lt;br&gt;&lt;b&gt;공감능력&lt;/b&gt;이 뛰어나며&lt;br&gt;&lt;br&gt;우유부단한 면이 있지만&lt;br&gt;&lt;b&gt;자신만의 취향이 있는&lt;/b&gt;&lt;br&gt;&lt;br&gt;쏠라티의 음악을&lt;br&gt;골고루 아끼는 &lt;b&gt;교집합 형&lt;/b&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑에 있어 조심스러워하지만&lt;br&gt;&lt;b&gt;숨기지 못해 티가 나고&lt;/b&gt;&lt;br&gt;&lt;br&gt;상대방을 배려하는 마음에&lt;br&gt;자꾸 &lt;b&gt;눈치를 보는&lt;/b&gt; 당신은&lt;br&gt;&lt;br&gt;보컬 림과 같은 &lt;b&gt;Romantic형&lt;/b&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인의 성향을 존중할 줄 알고&lt;br&gt;&lt;b&gt;자유분방한&lt;/b&gt; 당신은&lt;br&gt;&lt;br&gt;은근히 수줍음이 많지만&lt;br&gt;&lt;b&gt;나를 표현하기를 좋아하는&lt;/b&gt;&lt;br&gt;&lt;br&gt;드럼 희택과 같은 &lt;b&gt;Fantastic형&lt;/b&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>lyric</t>
+  </si>
+  <si>
     <t xml:space="preserve">아침 햇살에 눈을 떠보니 </t>
   </si>
   <si>
+    <t>무슨 생각 하는지 내 기분이 어떤지</t>
+  </si>
+  <si>
+    <t>눈빛만으로도 서로 알 것 같았기에</t>
+  </si>
+  <si>
+    <t>아직 안자 문자했었네</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">느슨한 티셔츠 같던 우리 사이 </t>
   </si>
   <si>
-    <t>눈빛만으로도 서로 알 것 같았기에</t>
-  </si>
-  <si>
-    <t>아직 안자 문자했었네</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 생각 하는지 내 기분이 어떤지</t>
-  </si>
-  <si>
     <t>그래 이번엔 또 뭐야</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안해미안한데</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>solatic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 로맨틱, 판타스틱, 쏠라틱한 사람입니다. 당신이 가진 잠재력을 펼쳐보세요</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈퍼밀당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 슈퍼밀당하시는 분입니다. 자존심때문에 말을 제대로 하지도 못하는 당신, 그러나 사랑이 당신에겐 최고지요</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>립다립다그립다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음 속 한구석에 그리움을 가지고 살아가는 사람입니다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>중립형</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>보편적 음악취향. 당신과 쏠라티의 연결고리는 언제나 교집합</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>편한사이</t>
   </si>
   <si>
     <t>moondance</t>
+  </si>
+  <si>
+    <t>미안해&lt;br&gt;미안한데</t>
+  </si>
+  <si>
+    <t>오늘까지&lt;br&gt;바래다줄게</t>
   </si>
 </sst>
 </file>
@@ -221,6 +217,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="굴림"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
@@ -246,17 +243,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Apple SD 산돌고딕 Neo 일반체"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Apple SD 산돌고딕 Neo 일반체"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
@@ -271,6 +257,17 @@
     <font>
       <sz val="10"/>
       <color rgb="FF343434"/>
+      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
       <charset val="129"/>
     </font>
@@ -292,15 +289,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -325,37 +318,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -716,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>26</v>
@@ -735,290 +728,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="14"/>
-    <col min="4" max="4" width="27.1640625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="14"/>
+    <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="14.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="14">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14">
+        <v>3</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="14">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="14">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13">
+        <v>3</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21">
+        <v>2</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13">
+        <v>4</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18">
-        <v>1</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="14">
+      <c r="B13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="21">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="18">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="18">
-        <v>3</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16">
-        <v>3</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="18">
-        <v>3</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25">
-        <v>2</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="16">
-        <v>4</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="16">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="25">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1053,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409">
@@ -1064,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
@@ -1078,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -1086,10 +1070,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -1097,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -1105,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1098,6 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1125,116 +1108,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="14.5" style="12"/>
+    <col min="1" max="2" width="14.5" style="15"/>
+    <col min="3" max="3" width="42.83203125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:3" ht="36" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
+      <c r="C1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59" customHeight="1">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" customHeight="1">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="B3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" customHeight="1">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
+      <c r="B4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36" customHeight="1">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1265,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>

--- a/app/import/song_data.xlsx
+++ b/app/import/song_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29000" yWindow="-7840" windowWidth="25600" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -854,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="14">
@@ -896,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>39</v>
@@ -917,7 +917,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>40</v>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>

--- a/app/import/song_data.xlsx
+++ b/app/import/song_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>player_id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>priority</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
   </si>
   <si>
     <t>화이트셔츠</t>
-  </si>
-  <si>
-    <t>반하다</t>
   </si>
   <si>
     <t>Moondance</t>
@@ -104,9 +98,6 @@
     <t>우예</t>
   </si>
   <si>
-    <t>그대는 나를</t>
-  </si>
-  <si>
     <t>아직 안자</t>
   </si>
   <si>
@@ -137,10 +128,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>사랑에 있어 조심스러워하지만&lt;br&gt;&lt;b&gt;숨기지 못해 티가 나고&lt;/b&gt;&lt;br&gt;&lt;br&gt;상대방을 배려하는 마음에&lt;br&gt;자꾸 &lt;b&gt;눈치를 보는&lt;/b&gt; 당신은&lt;br&gt;&lt;br&gt;보컬 림과 같은 &lt;b&gt;Romantic형&lt;/b&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>개인의 성향을 존중할 줄 알고&lt;br&gt;&lt;b&gt;자유분방한&lt;/b&gt; 당신은&lt;br&gt;&lt;br&gt;은근히 수줍음이 많지만&lt;br&gt;&lt;b&gt;나를 표현하기를 좋아하는&lt;/b&gt;&lt;br&gt;&lt;br&gt;드럼 희택과 같은 &lt;b&gt;Fantastic형&lt;/b&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -148,9 +135,6 @@
     <t>lyric</t>
   </si>
   <si>
-    <t xml:space="preserve">아침 햇살에 눈을 떠보니 </t>
-  </si>
-  <si>
     <t>무슨 생각 하는지 내 기분이 어떤지</t>
   </si>
   <si>
@@ -177,7 +161,76 @@
     <t>미안해&lt;br&gt;미안한데</t>
   </si>
   <si>
-    <t>오늘까지&lt;br&gt;바래다줄게</t>
+    <t>title_en</t>
+  </si>
+  <si>
+    <t>Look Up</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Shirt</t>
+  </si>
+  <si>
+    <t>Ooh-Yeah</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick Tock</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moho</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>What More Can I Say</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tangled (Like an Earphone Cord)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>description_en</t>
+  </si>
+  <si>
+    <t>description_ko</t>
+  </si>
+  <si>
+    <t>name_ko</t>
+  </si>
+  <si>
+    <t>title_ko</t>
+  </si>
+  <si>
+    <t>Fantastic Type</t>
+  </si>
+  <si>
+    <t>Solatic Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntersection Type </t>
+  </si>
+  <si>
+    <t>Romantic Type</t>
+  </si>
+  <si>
+    <t>A person who knows how to respect others and their tastes. You are very free-spirited and like to express your feelings. But in a way, you are quite shy sometimes. &lt;b&gt;You are as fantastic as Solati’s Drummer Hee-taek. &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>A person who like to talk and share feelings and know how to empathize with others. You are warm-hearted but in a way you can become a fool in front of who you love. &lt;b&gt;You are as Solatic as Solati’s Bassist Oh-ahn.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>A person who is optimistic and knows how to empathize with others. But sometimes, you become indecisive. You have your own taste of music and that is Solati’s music. 이 취향은 한국말로 말이 안돼서 영어로 번역 못하겠음. 뭐가 교집합? 쏠라티의 음악이 자신만의 취향이 있다는건 말이 안돼고, 이 유형의 사람이 자신만의 취향이 있다는건가? 교집합은 뭐의 교집합? 솔라티 음악을 골고루 아끼는 것과 교집합은 무슨 관계?</t>
+  </si>
+  <si>
+    <t>사랑에 있어 조심스러워하지만&lt;br&gt;&lt;b&gt;숨기지 못해 티가 나고&lt;/b&gt;&lt;br&gt;&lt;br&gt;상대방을 배려하는 마음에&lt;br&gt;자꾸 &lt;b&gt;눈치를 보는&lt;/b&gt; 당신은&lt;br&gt;&lt;br&gt;보컬 림과 같은 &lt;b&gt;Romantic형&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>A person who is little hesitant in front of who you love, but you cannot hide your feelings for him or her. You care for him or her so much that you. &lt;b&gt;You are as romantic as Solati’s Vocal Lim.&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -187,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -270,6 +323,11 @@
       <sz val="10"/>
       <name val="Apple SD 산돌고딕 Neo 일반체"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,7 +347,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,8 +355,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -343,15 +425,43 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="30" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -698,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -709,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>26</v>
@@ -728,281 +838,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="11"/>
+    <col min="3" max="3" width="16.83203125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="14.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="14">
+      <c r="E3" s="22"/>
+      <c r="F3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="21">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="K4" s="13"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="13">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13">
         <v>3</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="14">
-        <v>3</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="14">
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="14">
         <v>3</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="14">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="21">
         <v>3</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I8" s="13"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="13">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="I9" s="13"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13">
-        <v>5</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19"/>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21">
-        <v>2</v>
-      </c>
-      <c r="H11" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="13">
-        <v>4</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="D14" s="12"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D14" s="13"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D16" s="13"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="4:6" ht="15.75" customHeight="1">
+      <c r="D17" s="13"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1048,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
@@ -1062,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -1070,10 +1178,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -1081,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -1089,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1108,95 +1216,130 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="15"/>
-    <col min="3" max="3" width="42.83203125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="14.5" style="15"/>
+    <col min="1" max="3" width="14.5" style="15"/>
+    <col min="4" max="4" width="42.83203125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36" customHeight="1">
+    <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="59" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="59" customHeight="1">
       <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51" customHeight="1">
       <c r="A3" s="23">
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36" customHeight="1">
       <c r="A4" s="23">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="36" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36" customHeight="1">
       <c r="A5" s="23">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D6" s="25"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1223,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>

--- a/app/import/song_data.xlsx
+++ b/app/import/song_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="48920" yWindow="-12260" windowWidth="25600" windowHeight="19920" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -218,19 +218,19 @@
     <t>Romantic Type</t>
   </si>
   <si>
-    <t>A person who knows how to respect others and their tastes. You are very free-spirited and like to express your feelings. But in a way, you are quite shy sometimes. &lt;b&gt;You are as fantastic as Solati’s Drummer Hee-taek. &lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>A person who like to talk and share feelings and know how to empathize with others. You are warm-hearted but in a way you can become a fool in front of who you love. &lt;b&gt;You are as Solatic as Solati’s Bassist Oh-ahn.&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>A person who is optimistic and knows how to empathize with others. But sometimes, you become indecisive. You have your own taste of music and that is Solati’s music. 이 취향은 한국말로 말이 안돼서 영어로 번역 못하겠음. 뭐가 교집합? 쏠라티의 음악이 자신만의 취향이 있다는건 말이 안돼고, 이 유형의 사람이 자신만의 취향이 있다는건가? 교집합은 뭐의 교집합? 솔라티 음악을 골고루 아끼는 것과 교집합은 무슨 관계?</t>
-  </si>
-  <si>
     <t>사랑에 있어 조심스러워하지만&lt;br&gt;&lt;b&gt;숨기지 못해 티가 나고&lt;/b&gt;&lt;br&gt;&lt;br&gt;상대방을 배려하는 마음에&lt;br&gt;자꾸 &lt;b&gt;눈치를 보는&lt;/b&gt; 당신은&lt;br&gt;&lt;br&gt;보컬 림과 같은 &lt;b&gt;Romantic형&lt;/b&gt;</t>
   </si>
   <si>
-    <t>A person who is little hesitant in front of who you love, but you cannot hide your feelings for him or her. You care for him or her so much that you. &lt;b&gt;You are as romantic as Solati’s Vocal Lim.&lt;/b&gt;</t>
+    <t>You know how to respect others and their tastes. You are free-spirited and like to express your feelings. But you can be quite shy sometimes. &lt;b&gt;You are as fantastic as Solati’s Drummer Hee-taek.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>You are little hesitant in front of who you love, but you cannot hide your feelings. You are too considerate sometimes so you just try hard to read your lover’s mind rather than showing your true feelings. &lt;b&gt;You are as romantic as Solati’s Vocal Lim.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>You like to talk and share feelings with others and you know how to empathize with others. But you can be a fool in front of who you love. &lt;b&gt;You are as Solar as Solati’s Bassist Oh-ahn.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>You are an optimist and easily empathize with others. So sometimes you become indecisive, but you have clear taste about music. We know you love Solati! &lt;b&gt;You are as Solatic as Solati! &lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1246,7 +1246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="59" customHeight="1">
+    <row r="2" spans="1:5" ht="65" customHeight="1">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -1260,10 +1260,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="65" customHeight="1">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1274,13 +1274,13 @@
         <v>57</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="65" customHeight="1">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1294,10 +1294,10 @@
         <v>29</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="36" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="65" customHeight="1">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
